--- a/georgia/transformations/templates/calibrated/georgia/model_input_variables_georgia_ce_calibrated.xlsx
+++ b/georgia/transformations/templates/calibrated/georgia/model_input_variables_georgia_ce_calibrated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="237">
   <si>
     <t>subsector</t>
   </si>
@@ -29797,76 +29797,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V8">
-        <v>0.04695029720711046</v>
+        <v>0.03986696387377712</v>
       </c>
       <c r="W8">
-        <v>0.0633872408068013</v>
+        <v>0.04922057414013463</v>
       </c>
       <c r="X8">
-        <v>0.07982418440649215</v>
+        <v>0.05857418440649215</v>
       </c>
       <c r="Y8">
-        <v>0.096261128006183</v>
+        <v>0.06792779467284966</v>
       </c>
       <c r="Z8">
-        <v>0.1126980716058739</v>
+        <v>0.07728140493920718</v>
       </c>
       <c r="AA8">
-        <v>0.1291350152055647</v>
+        <v>0.0866350152055647</v>
       </c>
       <c r="AB8">
-        <v>0.1455719588052556</v>
+        <v>0.09598862547192222</v>
       </c>
       <c r="AC8">
-        <v>0.1620089024049464</v>
+        <v>0.1053422357382797</v>
       </c>
       <c r="AD8">
-        <v>0.1784458460046373</v>
+        <v>0.1146958460046373</v>
       </c>
       <c r="AE8">
-        <v>0.1948827896043281</v>
+        <v>0.1240494562709948</v>
       </c>
       <c r="AF8">
-        <v>0.2113197332040189</v>
+        <v>0.1334030665373523</v>
       </c>
       <c r="AG8">
-        <v>0.2277566768037098</v>
+        <v>0.1427566768037098</v>
       </c>
       <c r="AH8">
-        <v>0.2441936204034006</v>
+        <v>0.1521102870700673</v>
       </c>
       <c r="AI8">
-        <v>0.2606305640030915</v>
+        <v>0.1614638973364249</v>
       </c>
       <c r="AJ8">
-        <v>0.2770675076027824</v>
+        <v>0.1708175076027823</v>
       </c>
       <c r="AK8">
-        <v>0.2935044512024732</v>
+        <v>0.1801711178691399</v>
       </c>
       <c r="AL8">
-        <v>0.309941394802164</v>
+        <v>0.1895247281354974</v>
       </c>
       <c r="AM8">
-        <v>0.3263783384018549</v>
+        <v>0.1988783384018549</v>
       </c>
       <c r="AN8">
-        <v>0.3428152820015457</v>
+        <v>0.2082319486682124</v>
       </c>
       <c r="AO8">
-        <v>0.3592522256012366</v>
+        <v>0.21758555893457</v>
       </c>
       <c r="AP8">
-        <v>0.3756891692009275</v>
+        <v>0.2269391692009275</v>
       </c>
       <c r="AQ8">
-        <v>0.3921261128006183</v>
+        <v>0.2362927794672849</v>
       </c>
       <c r="AR8">
-        <v>0.4085630564003092</v>
+        <v>0.2456463897336425</v>
       </c>
       <c r="AS8">
-        <v>0.425</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -29922,76 +29922,76 @@
         <v>0.382135629228844</v>
       </c>
       <c r="V9">
-        <v>0.3839216446776422</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="W9">
-        <v>0.3857076601264403</v>
+        <v>0.3821356292288439</v>
       </c>
       <c r="X9">
-        <v>0.3874936755752384</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="Y9">
-        <v>0.3892796910240367</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="Z9">
-        <v>0.3910657064728348</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AA9">
-        <v>0.392851721921633</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AB9">
-        <v>0.3946377373704311</v>
+        <v>0.3821356292288439</v>
       </c>
       <c r="AC9">
-        <v>0.3964237528192294</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AD9">
-        <v>0.3982097682680275</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AE9">
-        <v>0.3999957837168256</v>
+        <v>0.3821356292288439</v>
       </c>
       <c r="AF9">
-        <v>0.4017817991656238</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AG9">
-        <v>0.403567814614422</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AH9">
-        <v>0.4053538300632201</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AI9">
-        <v>0.4071398455120183</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AJ9">
-        <v>0.4089258609608165</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AK9">
-        <v>0.4107118764096147</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AL9">
-        <v>0.4124978918584128</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AM9">
-        <v>0.414283907307211</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AN9">
-        <v>0.4160699227560092</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AO9">
-        <v>0.4178559382048073</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AP9">
-        <v>0.4196419536536055</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AQ9">
-        <v>0.4214279691024037</v>
+        <v>0.3821356292288439</v>
       </c>
       <c r="AR9">
-        <v>0.4232139845512018</v>
+        <v>0.382135629228844</v>
       </c>
       <c r="AS9">
-        <v>0.425</v>
+        <v>0.382135629228844</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -30047,76 +30047,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V10">
-        <v>0.04695029720711046</v>
+        <v>0.03986696387377712</v>
       </c>
       <c r="W10">
-        <v>0.0633872408068013</v>
+        <v>0.04922057414013463</v>
       </c>
       <c r="X10">
-        <v>0.07982418440649215</v>
+        <v>0.05857418440649215</v>
       </c>
       <c r="Y10">
-        <v>0.096261128006183</v>
+        <v>0.06792779467284966</v>
       </c>
       <c r="Z10">
-        <v>0.1126980716058739</v>
+        <v>0.07728140493920718</v>
       </c>
       <c r="AA10">
-        <v>0.1291350152055647</v>
+        <v>0.0866350152055647</v>
       </c>
       <c r="AB10">
-        <v>0.1455719588052556</v>
+        <v>0.09598862547192222</v>
       </c>
       <c r="AC10">
-        <v>0.1620089024049464</v>
+        <v>0.1053422357382797</v>
       </c>
       <c r="AD10">
-        <v>0.1784458460046373</v>
+        <v>0.1146958460046373</v>
       </c>
       <c r="AE10">
-        <v>0.1948827896043281</v>
+        <v>0.1240494562709948</v>
       </c>
       <c r="AF10">
-        <v>0.2113197332040189</v>
+        <v>0.1334030665373523</v>
       </c>
       <c r="AG10">
-        <v>0.2277566768037098</v>
+        <v>0.1427566768037098</v>
       </c>
       <c r="AH10">
-        <v>0.2441936204034006</v>
+        <v>0.1521102870700673</v>
       </c>
       <c r="AI10">
-        <v>0.2606305640030915</v>
+        <v>0.1614638973364249</v>
       </c>
       <c r="AJ10">
-        <v>0.2770675076027824</v>
+        <v>0.1708175076027823</v>
       </c>
       <c r="AK10">
-        <v>0.2935044512024732</v>
+        <v>0.1801711178691399</v>
       </c>
       <c r="AL10">
-        <v>0.309941394802164</v>
+        <v>0.1895247281354974</v>
       </c>
       <c r="AM10">
-        <v>0.3263783384018549</v>
+        <v>0.1988783384018549</v>
       </c>
       <c r="AN10">
-        <v>0.3428152820015457</v>
+        <v>0.2082319486682124</v>
       </c>
       <c r="AO10">
-        <v>0.3592522256012366</v>
+        <v>0.21758555893457</v>
       </c>
       <c r="AP10">
-        <v>0.3756891692009275</v>
+        <v>0.2269391692009275</v>
       </c>
       <c r="AQ10">
-        <v>0.3921261128006183</v>
+        <v>0.2362927794672849</v>
       </c>
       <c r="AR10">
-        <v>0.4085630564003092</v>
+        <v>0.2456463897336425</v>
       </c>
       <c r="AS10">
-        <v>0.425</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -31373,7 +31373,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS21"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32319,76 +32319,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V8">
-        <v>0.04801279720711045</v>
+        <v>0.04695029720711046</v>
       </c>
       <c r="W8">
-        <v>0.06551224080680131</v>
+        <v>0.0633872408068013</v>
       </c>
       <c r="X8">
-        <v>0.08301168440649215</v>
+        <v>0.07982418440649215</v>
       </c>
       <c r="Y8">
-        <v>0.100511128006183</v>
+        <v>0.096261128006183</v>
       </c>
       <c r="Z8">
-        <v>0.1180105716058739</v>
+        <v>0.1126980716058739</v>
       </c>
       <c r="AA8">
-        <v>0.1355100152055647</v>
+        <v>0.1291350152055647</v>
       </c>
       <c r="AB8">
-        <v>0.1530094588052556</v>
+        <v>0.1455719588052556</v>
       </c>
       <c r="AC8">
-        <v>0.1705089024049464</v>
+        <v>0.1620089024049464</v>
       </c>
       <c r="AD8">
-        <v>0.1880083460046373</v>
+        <v>0.1784458460046373</v>
       </c>
       <c r="AE8">
-        <v>0.2055077896043281</v>
+        <v>0.1948827896043281</v>
       </c>
       <c r="AF8">
-        <v>0.2230072332040189</v>
+        <v>0.2113197332040189</v>
       </c>
       <c r="AG8">
-        <v>0.2405066768037098</v>
+        <v>0.2277566768037098</v>
       </c>
       <c r="AH8">
-        <v>0.2580061204034007</v>
+        <v>0.2441936204034006</v>
       </c>
       <c r="AI8">
-        <v>0.2755055640030915</v>
+        <v>0.2606305640030915</v>
       </c>
       <c r="AJ8">
-        <v>0.2930050076027824</v>
+        <v>0.2770675076027824</v>
       </c>
       <c r="AK8">
-        <v>0.3105044512024732</v>
+        <v>0.2935044512024732</v>
       </c>
       <c r="AL8">
-        <v>0.3280038948021641</v>
+        <v>0.309941394802164</v>
       </c>
       <c r="AM8">
-        <v>0.3455033384018549</v>
+        <v>0.3263783384018549</v>
       </c>
       <c r="AN8">
-        <v>0.3630027820015457</v>
+        <v>0.3428152820015457</v>
       </c>
       <c r="AO8">
-        <v>0.3805022256012366</v>
+        <v>0.3592522256012366</v>
       </c>
       <c r="AP8">
-        <v>0.3980016692009275</v>
+        <v>0.3756891692009275</v>
       </c>
       <c r="AQ8">
-        <v>0.4155011128006183</v>
+        <v>0.3921261128006183</v>
       </c>
       <c r="AR8">
-        <v>0.4330005564003092</v>
+        <v>0.4085630564003092</v>
       </c>
       <c r="AS8">
-        <v>0.4505</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -32444,76 +32444,76 @@
         <v>0.382135629228844</v>
       </c>
       <c r="V9">
-        <v>0.3849841446776422</v>
+        <v>0.3839216446776422</v>
       </c>
       <c r="W9">
-        <v>0.3878326601264402</v>
+        <v>0.3857076601264403</v>
       </c>
       <c r="X9">
-        <v>0.3906811755752385</v>
+        <v>0.3874936755752384</v>
       </c>
       <c r="Y9">
-        <v>0.3935296910240367</v>
+        <v>0.3892796910240367</v>
       </c>
       <c r="Z9">
-        <v>0.3963782064728348</v>
+        <v>0.3910657064728348</v>
       </c>
       <c r="AA9">
-        <v>0.399226721921633</v>
+        <v>0.392851721921633</v>
       </c>
       <c r="AB9">
-        <v>0.4020752373704312</v>
+        <v>0.3946377373704311</v>
       </c>
       <c r="AC9">
-        <v>0.4049237528192294</v>
+        <v>0.3964237528192294</v>
       </c>
       <c r="AD9">
-        <v>0.4077722682680275</v>
+        <v>0.3982097682680275</v>
       </c>
       <c r="AE9">
-        <v>0.4106207837168256</v>
+        <v>0.3999957837168256</v>
       </c>
       <c r="AF9">
-        <v>0.4134692991656238</v>
+        <v>0.4017817991656238</v>
       </c>
       <c r="AG9">
-        <v>0.416317814614422</v>
+        <v>0.403567814614422</v>
       </c>
       <c r="AH9">
-        <v>0.4191663300632201</v>
+        <v>0.4053538300632201</v>
       </c>
       <c r="AI9">
-        <v>0.4220148455120183</v>
+        <v>0.4071398455120183</v>
       </c>
       <c r="AJ9">
-        <v>0.4248633609608164</v>
+        <v>0.4089258609608165</v>
       </c>
       <c r="AK9">
-        <v>0.4277118764096147</v>
+        <v>0.4107118764096147</v>
       </c>
       <c r="AL9">
-        <v>0.4305603918584128</v>
+        <v>0.4124978918584128</v>
       </c>
       <c r="AM9">
-        <v>0.433408907307211</v>
+        <v>0.414283907307211</v>
       </c>
       <c r="AN9">
-        <v>0.4362574227560092</v>
+        <v>0.4160699227560092</v>
       </c>
       <c r="AO9">
-        <v>0.4391059382048073</v>
+        <v>0.4178559382048073</v>
       </c>
       <c r="AP9">
-        <v>0.4419544536536055</v>
+        <v>0.4196419536536055</v>
       </c>
       <c r="AQ9">
-        <v>0.4448029691024037</v>
+        <v>0.4214279691024037</v>
       </c>
       <c r="AR9">
-        <v>0.4476514845512019</v>
+        <v>0.4232139845512018</v>
       </c>
       <c r="AS9">
-        <v>0.4505</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -32521,7 +32521,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -32533,112 +32533,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="O10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="P10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="S10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="T10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="U10">
-        <v>0.5</v>
+        <v>0.0305133536074196</v>
       </c>
       <c r="V10">
-        <v>0.5004166666666667</v>
+        <v>0.04695029720711046</v>
       </c>
       <c r="W10">
-        <v>0.5008333333333334</v>
+        <v>0.0633872408068013</v>
       </c>
       <c r="X10">
-        <v>0.50125</v>
+        <v>0.07982418440649215</v>
       </c>
       <c r="Y10">
-        <v>0.5016666666666667</v>
+        <v>0.096261128006183</v>
       </c>
       <c r="Z10">
-        <v>0.5020833333333333</v>
+        <v>0.1126980716058739</v>
       </c>
       <c r="AA10">
-        <v>0.5024999999999999</v>
+        <v>0.1291350152055647</v>
       </c>
       <c r="AB10">
-        <v>0.5029166666666667</v>
+        <v>0.1455719588052556</v>
       </c>
       <c r="AC10">
-        <v>0.5033333333333334</v>
+        <v>0.1620089024049464</v>
       </c>
       <c r="AD10">
-        <v>0.50375</v>
+        <v>0.1784458460046373</v>
       </c>
       <c r="AE10">
-        <v>0.5041666666666667</v>
+        <v>0.1948827896043281</v>
       </c>
       <c r="AF10">
-        <v>0.5045833333333334</v>
+        <v>0.2113197332040189</v>
       </c>
       <c r="AG10">
-        <v>0.505</v>
+        <v>0.2277566768037098</v>
       </c>
       <c r="AH10">
-        <v>0.5054166666666666</v>
+        <v>0.2441936204034006</v>
       </c>
       <c r="AI10">
-        <v>0.5058333333333334</v>
+        <v>0.2606305640030915</v>
       </c>
       <c r="AJ10">
-        <v>0.50625</v>
+        <v>0.2770675076027824</v>
       </c>
       <c r="AK10">
-        <v>0.5066666666666666</v>
+        <v>0.2935044512024732</v>
       </c>
       <c r="AL10">
-        <v>0.5070833333333333</v>
+        <v>0.309941394802164</v>
       </c>
       <c r="AM10">
-        <v>0.5075000000000001</v>
+        <v>0.3263783384018549</v>
       </c>
       <c r="AN10">
-        <v>0.5079166666666667</v>
+        <v>0.3428152820015457</v>
       </c>
       <c r="AO10">
-        <v>0.5083333333333333</v>
+        <v>0.3592522256012366</v>
       </c>
       <c r="AP10">
-        <v>0.50875</v>
+        <v>0.3756891692009275</v>
       </c>
       <c r="AQ10">
-        <v>0.5091666666666667</v>
+        <v>0.3921261128006183</v>
       </c>
       <c r="AR10">
-        <v>0.5095833333333333</v>
+        <v>0.4085630564003092</v>
       </c>
       <c r="AS10">
-        <v>0.51</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -32646,10 +32646,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -32658,112 +32658,112 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0305133536074196</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.04801279720711045</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="W11">
-        <v>0.06551224080680131</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="X11">
-        <v>0.08301168440649215</v>
+        <v>0.0625</v>
       </c>
       <c r="Y11">
-        <v>0.100511128006183</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Z11">
-        <v>0.1180105716058739</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="AA11">
-        <v>0.1355100152055647</v>
+        <v>0.125</v>
       </c>
       <c r="AB11">
-        <v>0.1530094588052556</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="AC11">
-        <v>0.1705089024049464</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AD11">
-        <v>0.1880083460046373</v>
+        <v>0.1875</v>
       </c>
       <c r="AE11">
-        <v>0.2055077896043281</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="AF11">
-        <v>0.2230072332040189</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="AG11">
-        <v>0.2405066768037098</v>
+        <v>0.25</v>
       </c>
       <c r="AH11">
-        <v>0.2580061204034007</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="AI11">
-        <v>0.2755055640030915</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AJ11">
-        <v>0.2930050076027824</v>
+        <v>0.3125</v>
       </c>
       <c r="AK11">
-        <v>0.3105044512024732</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AL11">
-        <v>0.3280038948021641</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AM11">
-        <v>0.3455033384018549</v>
+        <v>0.375</v>
       </c>
       <c r="AN11">
-        <v>0.3630027820015457</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="AO11">
-        <v>0.3805022256012366</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AP11">
-        <v>0.3980016692009275</v>
+        <v>0.4375</v>
       </c>
       <c r="AQ11">
-        <v>0.4155011128006183</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="AR11">
-        <v>0.4330005564003092</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="AS11">
-        <v>0.4505</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -32771,7 +32771,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -32783,112 +32783,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.758517872742639</v>
       </c>
       <c r="V12">
-        <v>0.01375</v>
+        <v>0.7376845394093058</v>
       </c>
       <c r="W12">
-        <v>0.0275</v>
+        <v>0.7168512060759724</v>
       </c>
       <c r="X12">
-        <v>0.04125</v>
+        <v>0.696017872742639</v>
       </c>
       <c r="Y12">
-        <v>0.055</v>
+        <v>0.6751845394093057</v>
       </c>
       <c r="Z12">
-        <v>0.06875000000000001</v>
+        <v>0.6543512060759723</v>
       </c>
       <c r="AA12">
-        <v>0.0825</v>
+        <v>0.633517872742639</v>
       </c>
       <c r="AB12">
-        <v>0.09625000000000002</v>
+        <v>0.6126845394093057</v>
       </c>
       <c r="AC12">
-        <v>0.11</v>
+        <v>0.5918512060759724</v>
       </c>
       <c r="AD12">
-        <v>0.12375</v>
+        <v>0.571017872742639</v>
       </c>
       <c r="AE12">
-        <v>0.1375</v>
+        <v>0.5501845394093057</v>
       </c>
       <c r="AF12">
-        <v>0.15125</v>
+        <v>0.5293512060759724</v>
       </c>
       <c r="AG12">
-        <v>0.165</v>
+        <v>0.508517872742639</v>
       </c>
       <c r="AH12">
-        <v>0.17875</v>
+        <v>0.4876845394093057</v>
       </c>
       <c r="AI12">
-        <v>0.1925</v>
+        <v>0.4668512060759723</v>
       </c>
       <c r="AJ12">
-        <v>0.20625</v>
+        <v>0.446017872742639</v>
       </c>
       <c r="AK12">
-        <v>0.22</v>
+        <v>0.4251845394093057</v>
       </c>
       <c r="AL12">
-        <v>0.23375</v>
+        <v>0.4043512060759724</v>
       </c>
       <c r="AM12">
-        <v>0.2475</v>
+        <v>0.383517872742639</v>
       </c>
       <c r="AN12">
-        <v>0.26125</v>
+        <v>0.3626845394093057</v>
       </c>
       <c r="AO12">
-        <v>0.275</v>
+        <v>0.3418512060759724</v>
       </c>
       <c r="AP12">
-        <v>0.28875</v>
+        <v>0.321017872742639</v>
       </c>
       <c r="AQ12">
-        <v>0.3025</v>
+        <v>0.3001845394093057</v>
       </c>
       <c r="AR12">
-        <v>0.31625</v>
+        <v>0.2793512060759724</v>
       </c>
       <c r="AS12">
-        <v>0.33</v>
+        <v>0.258517872742639</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -32896,10 +32896,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -32908,112 +32908,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="K13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="L13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="M13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="N13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="O13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="P13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="Q13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="R13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="S13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="T13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="U13">
-        <v>0.758517872742639</v>
+        <v>0.12441411319976</v>
       </c>
       <c r="V13">
-        <v>0.7447678727426391</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W13">
-        <v>0.7310178727426391</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X13">
-        <v>0.717267872742639</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y13">
-        <v>0.703517872742639</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z13">
-        <v>0.6897678727426391</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA13">
-        <v>0.676017872742639</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB13">
-        <v>0.662267872742639</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC13">
-        <v>0.6485178727426391</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD13">
-        <v>0.634767872742639</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE13">
-        <v>0.621017872742639</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF13">
-        <v>0.607267872742639</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG13">
-        <v>0.593517872742639</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH13">
-        <v>0.579767872742639</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI13">
-        <v>0.566017872742639</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ13">
-        <v>0.5522678727426391</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK13">
-        <v>0.538517872742639</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL13">
-        <v>0.524767872742639</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM13">
-        <v>0.511017872742639</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN13">
-        <v>0.4972678727426391</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO13">
-        <v>0.483517872742639</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP13">
-        <v>0.469767872742639</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ13">
-        <v>0.4560178727426391</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR13">
-        <v>0.442267872742639</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS13">
-        <v>0.428517872742639</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -33021,7 +33021,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -33069,76 +33069,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V14">
-        <v>0.1322926918164367</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W14">
-        <v>0.1401712704331133</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X14">
-        <v>0.14804984904979</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y14">
-        <v>0.1559284276664667</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z14">
-        <v>0.1638070062831433</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA14">
-        <v>0.17168558489982</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB14">
-        <v>0.1795641635164967</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC14">
-        <v>0.1874427421331734</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD14">
-        <v>0.19532132074985</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE14">
-        <v>0.2031998993665267</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF14">
-        <v>0.2110784779832033</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG14">
-        <v>0.21895705659988</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH14">
-        <v>0.2268356352165566</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI14">
-        <v>0.2347142138332333</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ14">
-        <v>0.24259279244991</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK14">
-        <v>0.2504713710665867</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL14">
-        <v>0.2583499496832634</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM14">
-        <v>0.26622852829994</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN14">
-        <v>0.2741071069166167</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO14">
-        <v>0.2819856855332934</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP14">
-        <v>0.28986426414997</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ14">
-        <v>0.2977428427666466</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR14">
-        <v>0.3056214213833234</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS14">
-        <v>0.3135</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -33146,7 +33146,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -33194,76 +33194,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V15">
-        <v>0.1322926918164367</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W15">
-        <v>0.1401712704331133</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X15">
-        <v>0.14804984904979</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y15">
-        <v>0.1559284276664667</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z15">
-        <v>0.1638070062831433</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA15">
-        <v>0.17168558489982</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB15">
-        <v>0.1795641635164967</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC15">
-        <v>0.1874427421331734</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD15">
-        <v>0.19532132074985</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE15">
-        <v>0.2031998993665267</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF15">
-        <v>0.2110784779832033</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG15">
-        <v>0.21895705659988</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH15">
-        <v>0.2268356352165566</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI15">
-        <v>0.2347142138332333</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ15">
-        <v>0.24259279244991</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK15">
-        <v>0.2504713710665867</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL15">
-        <v>0.2583499496832634</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM15">
-        <v>0.26622852829994</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN15">
-        <v>0.2741071069166167</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO15">
-        <v>0.2819856855332934</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP15">
-        <v>0.28986426414997</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ15">
-        <v>0.2977428427666466</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR15">
-        <v>0.3056214213833234</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS15">
-        <v>0.3135</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -33271,7 +33271,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -33319,76 +33319,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V16">
-        <v>0.1322926918164367</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W16">
-        <v>0.1401712704331133</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X16">
-        <v>0.14804984904979</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y16">
-        <v>0.1559284276664667</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z16">
-        <v>0.1638070062831433</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA16">
-        <v>0.17168558489982</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB16">
-        <v>0.1795641635164967</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC16">
-        <v>0.1874427421331734</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD16">
-        <v>0.19532132074985</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE16">
-        <v>0.2031998993665267</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF16">
-        <v>0.2110784779832033</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG16">
-        <v>0.21895705659988</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH16">
-        <v>0.2268356352165566</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI16">
-        <v>0.2347142138332333</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ16">
-        <v>0.24259279244991</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK16">
-        <v>0.2504713710665867</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL16">
-        <v>0.2583499496832634</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM16">
-        <v>0.26622852829994</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN16">
-        <v>0.2741071069166167</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO16">
-        <v>0.2819856855332934</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP16">
-        <v>0.28986426414997</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ16">
-        <v>0.2977428427666466</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR16">
-        <v>0.3056214213833234</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS16">
-        <v>0.3135</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -33396,7 +33396,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17">
         <v>23</v>
@@ -33444,76 +33444,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V17">
-        <v>0.1322926918164367</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W17">
-        <v>0.1401712704331133</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X17">
-        <v>0.14804984904979</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y17">
-        <v>0.1559284276664667</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z17">
-        <v>0.1638070062831433</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA17">
-        <v>0.17168558489982</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB17">
-        <v>0.1795641635164967</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC17">
-        <v>0.1874427421331734</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD17">
-        <v>0.19532132074985</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE17">
-        <v>0.2031998993665267</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF17">
-        <v>0.2110784779832033</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG17">
-        <v>0.21895705659988</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH17">
-        <v>0.2268356352165566</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI17">
-        <v>0.2347142138332333</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ17">
-        <v>0.24259279244991</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK17">
-        <v>0.2504713710665867</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL17">
-        <v>0.2583499496832634</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM17">
-        <v>0.26622852829994</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN17">
-        <v>0.2741071069166167</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO17">
-        <v>0.2819856855332934</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP17">
-        <v>0.28986426414997</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ17">
-        <v>0.2977428427666466</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR17">
-        <v>0.3056214213833234</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS17">
-        <v>0.3135</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -33521,7 +33521,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -33569,76 +33569,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V18">
-        <v>0.1322926918164367</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W18">
-        <v>0.1401712704331133</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X18">
-        <v>0.14804984904979</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y18">
-        <v>0.1559284276664667</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z18">
-        <v>0.1638070062831433</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA18">
-        <v>0.17168558489982</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB18">
-        <v>0.1795641635164967</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC18">
-        <v>0.1874427421331734</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD18">
-        <v>0.19532132074985</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE18">
-        <v>0.2031998993665267</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF18">
-        <v>0.2110784779832033</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG18">
-        <v>0.21895705659988</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH18">
-        <v>0.2268356352165566</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI18">
-        <v>0.2347142138332333</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ18">
-        <v>0.24259279244991</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK18">
-        <v>0.2504713710665867</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL18">
-        <v>0.2583499496832634</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM18">
-        <v>0.26622852829994</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN18">
-        <v>0.2741071069166167</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO18">
-        <v>0.2819856855332934</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP18">
-        <v>0.28986426414997</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ18">
-        <v>0.2977428427666466</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR18">
-        <v>0.3056214213833234</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS18">
-        <v>0.3135</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -33646,7 +33646,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19">
         <v>23</v>
@@ -33694,76 +33694,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V19">
-        <v>0.1322926918164367</v>
+        <v>0.1390218584831033</v>
       </c>
       <c r="W19">
-        <v>0.1401712704331133</v>
+        <v>0.1536296037664467</v>
       </c>
       <c r="X19">
-        <v>0.14804984904979</v>
+        <v>0.16823734904979</v>
       </c>
       <c r="Y19">
-        <v>0.1559284276664667</v>
+        <v>0.1828450943331333</v>
       </c>
       <c r="Z19">
-        <v>0.1638070062831433</v>
+        <v>0.1974528396164767</v>
       </c>
       <c r="AA19">
-        <v>0.17168558489982</v>
+        <v>0.21206058489982</v>
       </c>
       <c r="AB19">
-        <v>0.1795641635164967</v>
+        <v>0.2266683301831633</v>
       </c>
       <c r="AC19">
-        <v>0.1874427421331734</v>
+        <v>0.2412760754665067</v>
       </c>
       <c r="AD19">
-        <v>0.19532132074985</v>
+        <v>0.25588382074985</v>
       </c>
       <c r="AE19">
-        <v>0.2031998993665267</v>
+        <v>0.2704915660331934</v>
       </c>
       <c r="AF19">
-        <v>0.2110784779832033</v>
+        <v>0.2850993113165367</v>
       </c>
       <c r="AG19">
-        <v>0.21895705659988</v>
+        <v>0.29970705659988</v>
       </c>
       <c r="AH19">
-        <v>0.2268356352165566</v>
+        <v>0.3143148018832233</v>
       </c>
       <c r="AI19">
-        <v>0.2347142138332333</v>
+        <v>0.3289225471665667</v>
       </c>
       <c r="AJ19">
-        <v>0.24259279244991</v>
+        <v>0.34353029244991</v>
       </c>
       <c r="AK19">
-        <v>0.2504713710665867</v>
+        <v>0.3581380377332533</v>
       </c>
       <c r="AL19">
-        <v>0.2583499496832634</v>
+        <v>0.3727457830165967</v>
       </c>
       <c r="AM19">
-        <v>0.26622852829994</v>
+        <v>0.38735352829994</v>
       </c>
       <c r="AN19">
-        <v>0.2741071069166167</v>
+        <v>0.4019612735832833</v>
       </c>
       <c r="AO19">
-        <v>0.2819856855332934</v>
+        <v>0.4165690188666267</v>
       </c>
       <c r="AP19">
-        <v>0.28986426414997</v>
+        <v>0.43117676414997</v>
       </c>
       <c r="AQ19">
-        <v>0.2977428427666466</v>
+        <v>0.4457845094333133</v>
       </c>
       <c r="AR19">
-        <v>0.3056214213833234</v>
+        <v>0.4603922547166567</v>
       </c>
       <c r="AS19">
-        <v>0.3135</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -33771,10 +33771,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -33783,233 +33780,111 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="K20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="L20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="M20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="N20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="P20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="Q20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="R20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="S20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="T20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="U20">
-        <v>0.12441411319976</v>
+        <v>0.95</v>
       </c>
       <c r="V20">
-        <v>0.1322926918164367</v>
+        <v>0.95</v>
       </c>
       <c r="W20">
-        <v>0.1401712704331133</v>
+        <v>0.95</v>
       </c>
       <c r="X20">
-        <v>0.14804984904979</v>
+        <v>0.95</v>
       </c>
       <c r="Y20">
-        <v>0.1559284276664667</v>
+        <v>0.95</v>
       </c>
       <c r="Z20">
-        <v>0.1638070062831433</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="AA20">
-        <v>0.17168558489982</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>0.1795641635164967</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.1874427421331734</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="AD20">
-        <v>0.19532132074985</v>
+        <v>0.95</v>
       </c>
       <c r="AE20">
-        <v>0.2031998993665267</v>
+        <v>0.95</v>
       </c>
       <c r="AF20">
-        <v>0.2110784779832033</v>
+        <v>0.95</v>
       </c>
       <c r="AG20">
-        <v>0.21895705659988</v>
+        <v>0.95</v>
       </c>
       <c r="AH20">
-        <v>0.2268356352165566</v>
+        <v>0.95</v>
       </c>
       <c r="AI20">
-        <v>0.2347142138332333</v>
+        <v>0.95</v>
       </c>
       <c r="AJ20">
-        <v>0.24259279244991</v>
+        <v>0.95</v>
       </c>
       <c r="AK20">
-        <v>0.2504713710665867</v>
+        <v>0.95</v>
       </c>
       <c r="AL20">
-        <v>0.2583499496832634</v>
+        <v>0.95</v>
       </c>
       <c r="AM20">
-        <v>0.26622852829994</v>
+        <v>0.95</v>
       </c>
       <c r="AN20">
-        <v>0.2741071069166167</v>
+        <v>0.95</v>
       </c>
       <c r="AO20">
-        <v>0.2819856855332934</v>
+        <v>0.95</v>
       </c>
       <c r="AP20">
-        <v>0.28986426414997</v>
+        <v>0.95</v>
       </c>
       <c r="AQ20">
-        <v>0.2977428427666466</v>
+        <v>0.95</v>
       </c>
       <c r="AR20">
-        <v>0.3056214213833234</v>
+        <v>0.95</v>
       </c>
       <c r="AS20">
-        <v>0.3135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0.95</v>
-      </c>
-      <c r="K21">
-        <v>0.95</v>
-      </c>
-      <c r="L21">
-        <v>0.95</v>
-      </c>
-      <c r="M21">
-        <v>0.95</v>
-      </c>
-      <c r="N21">
-        <v>0.95</v>
-      </c>
-      <c r="O21">
-        <v>0.95</v>
-      </c>
-      <c r="P21">
-        <v>0.95</v>
-      </c>
-      <c r="Q21">
-        <v>0.95</v>
-      </c>
-      <c r="R21">
-        <v>0.95</v>
-      </c>
-      <c r="S21">
-        <v>0.95</v>
-      </c>
-      <c r="T21">
-        <v>0.95</v>
-      </c>
-      <c r="U21">
-        <v>0.95</v>
-      </c>
-      <c r="V21">
-        <v>0.95</v>
-      </c>
-      <c r="W21">
-        <v>0.95</v>
-      </c>
-      <c r="X21">
-        <v>0.95</v>
-      </c>
-      <c r="Y21">
-        <v>0.95</v>
-      </c>
-      <c r="Z21">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="AA21">
-        <v>0.95</v>
-      </c>
-      <c r="AB21">
-        <v>0.95</v>
-      </c>
-      <c r="AC21">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="AD21">
-        <v>0.95</v>
-      </c>
-      <c r="AE21">
-        <v>0.95</v>
-      </c>
-      <c r="AF21">
-        <v>0.95</v>
-      </c>
-      <c r="AG21">
-        <v>0.95</v>
-      </c>
-      <c r="AH21">
-        <v>0.95</v>
-      </c>
-      <c r="AI21">
-        <v>0.95</v>
-      </c>
-      <c r="AJ21">
-        <v>0.95</v>
-      </c>
-      <c r="AK21">
-        <v>0.95</v>
-      </c>
-      <c r="AL21">
-        <v>0.95</v>
-      </c>
-      <c r="AM21">
-        <v>0.95</v>
-      </c>
-      <c r="AN21">
-        <v>0.95</v>
-      </c>
-      <c r="AO21">
-        <v>0.95</v>
-      </c>
-      <c r="AP21">
-        <v>0.95</v>
-      </c>
-      <c r="AQ21">
-        <v>0.95</v>
-      </c>
-      <c r="AR21">
-        <v>0.95</v>
-      </c>
-      <c r="AS21">
         <v>0.95</v>
       </c>
     </row>
@@ -34966,76 +34841,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V8">
-        <v>0.04872113054044379</v>
+        <v>0.06465863054044378</v>
       </c>
       <c r="W8">
-        <v>0.06692890747346797</v>
+        <v>0.09880390747346797</v>
       </c>
       <c r="X8">
-        <v>0.08513668440649215</v>
+        <v>0.1329491844064921</v>
       </c>
       <c r="Y8">
-        <v>0.1033444613395163</v>
+        <v>0.1670944613395163</v>
       </c>
       <c r="Z8">
-        <v>0.1215522382725405</v>
+        <v>0.2012397382725405</v>
       </c>
       <c r="AA8">
-        <v>0.1397600152055647</v>
+        <v>0.2353850152055647</v>
       </c>
       <c r="AB8">
-        <v>0.1579677921385889</v>
+        <v>0.2695302921385889</v>
       </c>
       <c r="AC8">
-        <v>0.1761755690716131</v>
+        <v>0.3036755690716131</v>
       </c>
       <c r="AD8">
-        <v>0.1943833460046372</v>
+        <v>0.3378208460046372</v>
       </c>
       <c r="AE8">
-        <v>0.2125911229376615</v>
+        <v>0.3719661229376615</v>
       </c>
       <c r="AF8">
-        <v>0.2307988998706856</v>
+        <v>0.4061113998706856</v>
       </c>
       <c r="AG8">
-        <v>0.2490066768037098</v>
+        <v>0.4402566768037098</v>
       </c>
       <c r="AH8">
-        <v>0.267214453736734</v>
+        <v>0.4744019537367339</v>
       </c>
       <c r="AI8">
-        <v>0.2854222306697582</v>
+        <v>0.5085472306697582</v>
       </c>
       <c r="AJ8">
-        <v>0.3036300076027824</v>
+        <v>0.5426925076027823</v>
       </c>
       <c r="AK8">
-        <v>0.3218377845358065</v>
+        <v>0.5768377845358065</v>
       </c>
       <c r="AL8">
-        <v>0.3400455614688307</v>
+        <v>0.6109830614688306</v>
       </c>
       <c r="AM8">
-        <v>0.3582533384018549</v>
+        <v>0.6451283384018549</v>
       </c>
       <c r="AN8">
-        <v>0.3764611153348791</v>
+        <v>0.6792736153348791</v>
       </c>
       <c r="AO8">
-        <v>0.3946688922679033</v>
+        <v>0.7134188922679033</v>
       </c>
       <c r="AP8">
-        <v>0.4128766692009275</v>
+        <v>0.7475641692009275</v>
       </c>
       <c r="AQ8">
-        <v>0.4310844461339516</v>
+        <v>0.7817094461339515</v>
       </c>
       <c r="AR8">
-        <v>0.4492922230669759</v>
+        <v>0.8158547230669758</v>
       </c>
       <c r="AS8">
-        <v>0.4675</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -35091,76 +34966,76 @@
         <v>0.382135629228844</v>
       </c>
       <c r="V9">
-        <v>0.3856924780109755</v>
+        <v>0.4016299780109755</v>
       </c>
       <c r="W9">
-        <v>0.3892493267931069</v>
+        <v>0.421124326793107</v>
       </c>
       <c r="X9">
-        <v>0.3928061755752384</v>
+        <v>0.4406186755752385</v>
       </c>
       <c r="Y9">
-        <v>0.39636302435737</v>
+        <v>0.46011302435737</v>
       </c>
       <c r="Z9">
-        <v>0.3999198731395015</v>
+        <v>0.4796073731395015</v>
       </c>
       <c r="AA9">
-        <v>0.403476721921633</v>
+        <v>0.4991017219216329</v>
       </c>
       <c r="AB9">
-        <v>0.4070335707037644</v>
+        <v>0.5185960707037645</v>
       </c>
       <c r="AC9">
-        <v>0.410590419485896</v>
+        <v>0.538090419485896</v>
       </c>
       <c r="AD9">
-        <v>0.4141472682680275</v>
+        <v>0.5575847682680275</v>
       </c>
       <c r="AE9">
-        <v>0.417704117050159</v>
+        <v>0.577079117050159</v>
       </c>
       <c r="AF9">
-        <v>0.4212609658322905</v>
+        <v>0.5965734658322904</v>
       </c>
       <c r="AG9">
-        <v>0.424817814614422</v>
+        <v>0.6160678146144219</v>
       </c>
       <c r="AH9">
-        <v>0.4283746633965535</v>
+        <v>0.6355621633965535</v>
       </c>
       <c r="AI9">
-        <v>0.431931512178685</v>
+        <v>0.655056512178685</v>
       </c>
       <c r="AJ9">
-        <v>0.4354883609608166</v>
+        <v>0.6745508609608165</v>
       </c>
       <c r="AK9">
-        <v>0.439045209742948</v>
+        <v>0.694045209742948</v>
       </c>
       <c r="AL9">
-        <v>0.4426020585250795</v>
+        <v>0.7135395585250794</v>
       </c>
       <c r="AM9">
-        <v>0.446158907307211</v>
+        <v>0.733033907307211</v>
       </c>
       <c r="AN9">
-        <v>0.4497157560893426</v>
+        <v>0.7525282560893425</v>
       </c>
       <c r="AO9">
-        <v>0.453272604871474</v>
+        <v>0.772022604871474</v>
       </c>
       <c r="AP9">
-        <v>0.4568294536536055</v>
+        <v>0.7915169536536055</v>
       </c>
       <c r="AQ9">
-        <v>0.460386302435737</v>
+        <v>0.8110113024357369</v>
       </c>
       <c r="AR9">
-        <v>0.4639431512178685</v>
+        <v>0.8305056512178685</v>
       </c>
       <c r="AS9">
-        <v>0.4675</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -35216,76 +35091,76 @@
         <v>0.5</v>
       </c>
       <c r="V10">
-        <v>0.5021875</v>
+        <v>0.5145833333333334</v>
       </c>
       <c r="W10">
-        <v>0.504375</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="X10">
-        <v>0.5065625</v>
+        <v>0.54375</v>
       </c>
       <c r="Y10">
-        <v>0.50875</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="Z10">
-        <v>0.5109375</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="AA10">
-        <v>0.5131250000000001</v>
+        <v>0.5875</v>
       </c>
       <c r="AB10">
-        <v>0.5153125</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="AC10">
-        <v>0.5175000000000001</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="AD10">
-        <v>0.5196875</v>
+        <v>0.63125</v>
       </c>
       <c r="AE10">
-        <v>0.521875</v>
+        <v>0.6458333333333333</v>
       </c>
       <c r="AF10">
-        <v>0.5240625000000001</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="AG10">
-        <v>0.52625</v>
+        <v>0.675</v>
       </c>
       <c r="AH10">
-        <v>0.5284375</v>
+        <v>0.6895833333333333</v>
       </c>
       <c r="AI10">
-        <v>0.530625</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="AJ10">
-        <v>0.5328125</v>
+        <v>0.71875</v>
       </c>
       <c r="AK10">
-        <v>0.5349999999999999</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="AL10">
-        <v>0.5371874999999999</v>
+        <v>0.7479166666666666</v>
       </c>
       <c r="AM10">
-        <v>0.5393749999999999</v>
+        <v>0.7625</v>
       </c>
       <c r="AN10">
-        <v>0.5415624999999999</v>
+        <v>0.7770833333333333</v>
       </c>
       <c r="AO10">
-        <v>0.54375</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="AP10">
-        <v>0.5459375</v>
+        <v>0.80625</v>
       </c>
       <c r="AQ10">
-        <v>0.548125</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="AR10">
-        <v>0.5503125</v>
+        <v>0.8354166666666667</v>
       </c>
       <c r="AS10">
-        <v>0.5525</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -35341,76 +35216,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V11">
-        <v>0.04872113054044379</v>
+        <v>0.06465863054044378</v>
       </c>
       <c r="W11">
-        <v>0.06692890747346797</v>
+        <v>0.09880390747346797</v>
       </c>
       <c r="X11">
-        <v>0.08513668440649215</v>
+        <v>0.1329491844064921</v>
       </c>
       <c r="Y11">
-        <v>0.1033444613395163</v>
+        <v>0.1670944613395163</v>
       </c>
       <c r="Z11">
-        <v>0.1215522382725405</v>
+        <v>0.2012397382725405</v>
       </c>
       <c r="AA11">
-        <v>0.1397600152055647</v>
+        <v>0.2353850152055647</v>
       </c>
       <c r="AB11">
-        <v>0.1579677921385889</v>
+        <v>0.2695302921385889</v>
       </c>
       <c r="AC11">
-        <v>0.1761755690716131</v>
+        <v>0.3036755690716131</v>
       </c>
       <c r="AD11">
-        <v>0.1943833460046372</v>
+        <v>0.3378208460046372</v>
       </c>
       <c r="AE11">
-        <v>0.2125911229376615</v>
+        <v>0.3719661229376615</v>
       </c>
       <c r="AF11">
-        <v>0.2307988998706856</v>
+        <v>0.4061113998706856</v>
       </c>
       <c r="AG11">
-        <v>0.2490066768037098</v>
+        <v>0.4402566768037098</v>
       </c>
       <c r="AH11">
-        <v>0.267214453736734</v>
+        <v>0.4744019537367339</v>
       </c>
       <c r="AI11">
-        <v>0.2854222306697582</v>
+        <v>0.5085472306697582</v>
       </c>
       <c r="AJ11">
-        <v>0.3036300076027824</v>
+        <v>0.5426925076027823</v>
       </c>
       <c r="AK11">
-        <v>0.3218377845358065</v>
+        <v>0.5768377845358065</v>
       </c>
       <c r="AL11">
-        <v>0.3400455614688307</v>
+        <v>0.6109830614688306</v>
       </c>
       <c r="AM11">
-        <v>0.3582533384018549</v>
+        <v>0.6451283384018549</v>
       </c>
       <c r="AN11">
-        <v>0.3764611153348791</v>
+        <v>0.6792736153348791</v>
       </c>
       <c r="AO11">
-        <v>0.3946688922679033</v>
+        <v>0.7134188922679033</v>
       </c>
       <c r="AP11">
-        <v>0.4128766692009275</v>
+        <v>0.7475641692009275</v>
       </c>
       <c r="AQ11">
-        <v>0.4310844461339516</v>
+        <v>0.7817094461339515</v>
       </c>
       <c r="AR11">
-        <v>0.4492922230669759</v>
+        <v>0.8158547230669758</v>
       </c>
       <c r="AS11">
-        <v>0.4675</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -35466,76 +35341,76 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0.01458333333333333</v>
+        <v>0.03160491136427662</v>
       </c>
       <c r="W12">
-        <v>0.02916666666666666</v>
+        <v>0.06320982272855324</v>
       </c>
       <c r="X12">
-        <v>0.04375</v>
+        <v>0.09481473409282988</v>
       </c>
       <c r="Y12">
-        <v>0.05833333333333333</v>
+        <v>0.1264196454571065</v>
       </c>
       <c r="Z12">
-        <v>0.07291666666666667</v>
+        <v>0.1580245568213831</v>
       </c>
       <c r="AA12">
-        <v>0.08749999999999999</v>
+        <v>0.1896294681856598</v>
       </c>
       <c r="AB12">
-        <v>0.1020833333333333</v>
+        <v>0.2212343795499364</v>
       </c>
       <c r="AC12">
-        <v>0.1166666666666667</v>
+        <v>0.252839290914213</v>
       </c>
       <c r="AD12">
-        <v>0.13125</v>
+        <v>0.2844442022784897</v>
       </c>
       <c r="AE12">
-        <v>0.1458333333333333</v>
+        <v>0.3160491136427663</v>
       </c>
       <c r="AF12">
-        <v>0.1604166666666667</v>
+        <v>0.3476540250070429</v>
       </c>
       <c r="AG12">
-        <v>0.175</v>
+        <v>0.3792589363713195</v>
       </c>
       <c r="AH12">
-        <v>0.1895833333333333</v>
+        <v>0.4108638477355961</v>
       </c>
       <c r="AI12">
-        <v>0.2041666666666667</v>
+        <v>0.4424687590998728</v>
       </c>
       <c r="AJ12">
-        <v>0.21875</v>
+        <v>0.4740736704641494</v>
       </c>
       <c r="AK12">
-        <v>0.2333333333333333</v>
+        <v>0.505678581828426</v>
       </c>
       <c r="AL12">
-        <v>0.2479166666666667</v>
+        <v>0.5372834931927026</v>
       </c>
       <c r="AM12">
-        <v>0.2625</v>
+        <v>0.5688884045569793</v>
       </c>
       <c r="AN12">
-        <v>0.2770833333333333</v>
+        <v>0.6004933159212559</v>
       </c>
       <c r="AO12">
-        <v>0.2916666666666667</v>
+        <v>0.6320982272855326</v>
       </c>
       <c r="AP12">
-        <v>0.30625</v>
+        <v>0.6637031386498091</v>
       </c>
       <c r="AQ12">
-        <v>0.3208333333333333</v>
+        <v>0.6953080500140858</v>
       </c>
       <c r="AR12">
-        <v>0.3354166666666666</v>
+        <v>0.7269129613783625</v>
       </c>
       <c r="AS12">
-        <v>0.35</v>
+        <v>0.758517872742639</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -35591,76 +35466,76 @@
         <v>0.758517872742639</v>
       </c>
       <c r="V13">
-        <v>0.7439345394093058</v>
+        <v>0.7269129613783625</v>
       </c>
       <c r="W13">
-        <v>0.7293512060759724</v>
+        <v>0.6953080500140858</v>
       </c>
       <c r="X13">
-        <v>0.714767872742639</v>
+        <v>0.6637031386498091</v>
       </c>
       <c r="Y13">
-        <v>0.7001845394093057</v>
+        <v>0.6320982272855326</v>
       </c>
       <c r="Z13">
-        <v>0.6856012060759723</v>
+        <v>0.6004933159212559</v>
       </c>
       <c r="AA13">
-        <v>0.671017872742639</v>
+        <v>0.5688884045569793</v>
       </c>
       <c r="AB13">
-        <v>0.6564345394093056</v>
+        <v>0.5372834931927026</v>
       </c>
       <c r="AC13">
-        <v>0.6418512060759725</v>
+        <v>0.5056785818284261</v>
       </c>
       <c r="AD13">
-        <v>0.6272678727426391</v>
+        <v>0.4740736704641494</v>
       </c>
       <c r="AE13">
-        <v>0.6126845394093057</v>
+        <v>0.4424687590998727</v>
       </c>
       <c r="AF13">
-        <v>0.5981012060759724</v>
+        <v>0.4108638477355962</v>
       </c>
       <c r="AG13">
-        <v>0.583517872742639</v>
+        <v>0.3792589363713195</v>
       </c>
       <c r="AH13">
-        <v>0.5689345394093057</v>
+        <v>0.3476540250070429</v>
       </c>
       <c r="AI13">
-        <v>0.5543512060759723</v>
+        <v>0.3160491136427662</v>
       </c>
       <c r="AJ13">
-        <v>0.539767872742639</v>
+        <v>0.2844442022784897</v>
       </c>
       <c r="AK13">
-        <v>0.5251845394093058</v>
+        <v>0.252839290914213</v>
       </c>
       <c r="AL13">
-        <v>0.5106012060759724</v>
+        <v>0.2212343795499364</v>
       </c>
       <c r="AM13">
-        <v>0.496017872742639</v>
+        <v>0.1896294681856598</v>
       </c>
       <c r="AN13">
-        <v>0.4814345394093057</v>
+        <v>0.1580245568213832</v>
       </c>
       <c r="AO13">
-        <v>0.4668512060759724</v>
+        <v>0.1264196454571065</v>
       </c>
       <c r="AP13">
-        <v>0.452267872742639</v>
+        <v>0.09481473409282988</v>
       </c>
       <c r="AQ13">
-        <v>0.4376845394093057</v>
+        <v>0.06320982272855329</v>
       </c>
       <c r="AR13">
-        <v>0.4231012060759723</v>
+        <v>0.0316049113642766</v>
       </c>
       <c r="AS13">
-        <v>0.408517872742639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -35716,76 +35591,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V14">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W14">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X14">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y14">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z14">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA14">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB14">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC14">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD14">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE14">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF14">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG14">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH14">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI14">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ14">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK14">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL14">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM14">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN14">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO14">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP14">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ14">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR14">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS14">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -35841,76 +35716,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V15">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W15">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X15">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y15">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z15">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA15">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB15">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC15">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD15">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE15">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF15">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG15">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH15">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI15">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ15">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK15">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL15">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM15">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN15">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO15">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP15">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ15">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR15">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS15">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -35966,76 +35841,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V16">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W16">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X16">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y16">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z16">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA16">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB16">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC16">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD16">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE16">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF16">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG16">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH16">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI16">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ16">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK16">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL16">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM16">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN16">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO16">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP16">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ16">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR16">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS16">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -36091,76 +35966,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V17">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W17">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X17">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y17">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z17">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA17">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB17">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC17">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD17">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE17">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF17">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG17">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH17">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI17">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ17">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK17">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL17">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM17">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN17">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO17">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP17">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ17">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR17">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS17">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -36216,76 +36091,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V18">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W18">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X18">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y18">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z18">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA18">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB18">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC18">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD18">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE18">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF18">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG18">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH18">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI18">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ18">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK18">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL18">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM18">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN18">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO18">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP18">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ18">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR18">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS18">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -36341,76 +36216,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V19">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W19">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X19">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y19">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z19">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA19">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB19">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC19">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD19">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE19">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF19">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG19">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH19">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI19">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ19">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK19">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL19">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM19">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN19">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO19">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP19">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ19">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR19">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS19">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -36466,76 +36341,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V20">
-        <v>0.1330843584831033</v>
+        <v>0.15881352514977</v>
       </c>
       <c r="W20">
-        <v>0.1417546037664467</v>
+        <v>0.19321293709978</v>
       </c>
       <c r="X20">
-        <v>0.15042484904979</v>
+        <v>0.22761234904979</v>
       </c>
       <c r="Y20">
-        <v>0.1590950943331333</v>
+        <v>0.2620117609998</v>
       </c>
       <c r="Z20">
-        <v>0.1677653396164767</v>
+        <v>0.29641117294981</v>
       </c>
       <c r="AA20">
-        <v>0.17643558489982</v>
+        <v>0.33081058489982</v>
       </c>
       <c r="AB20">
-        <v>0.1851058301831633</v>
+        <v>0.36520999684983</v>
       </c>
       <c r="AC20">
-        <v>0.1937760754665067</v>
+        <v>0.39960940879984</v>
       </c>
       <c r="AD20">
-        <v>0.20244632074985</v>
+        <v>0.43400882074985</v>
       </c>
       <c r="AE20">
-        <v>0.2111165660331933</v>
+        <v>0.46840823269986</v>
       </c>
       <c r="AF20">
-        <v>0.2197868113165367</v>
+        <v>0.5028076446498699</v>
       </c>
       <c r="AG20">
-        <v>0.22845705659988</v>
+        <v>0.53720705659988</v>
       </c>
       <c r="AH20">
-        <v>0.2371273018832233</v>
+        <v>0.5716064685498899</v>
       </c>
       <c r="AI20">
-        <v>0.2457975471665667</v>
+        <v>0.6060058804999</v>
       </c>
       <c r="AJ20">
-        <v>0.25446779244991</v>
+        <v>0.64040529244991</v>
       </c>
       <c r="AK20">
-        <v>0.2631380377332533</v>
+        <v>0.67480470439992</v>
       </c>
       <c r="AL20">
-        <v>0.2718082830165967</v>
+        <v>0.7092041163499301</v>
       </c>
       <c r="AM20">
-        <v>0.28047852829994</v>
+        <v>0.7436035282999399</v>
       </c>
       <c r="AN20">
-        <v>0.2891487735832833</v>
+        <v>0.7780029402499499</v>
       </c>
       <c r="AO20">
-        <v>0.2978190188666267</v>
+        <v>0.8124023521999599</v>
       </c>
       <c r="AP20">
-        <v>0.30648926414997</v>
+        <v>0.8468017641499699</v>
       </c>
       <c r="AQ20">
-        <v>0.3151595094333133</v>
+        <v>0.8812011760999799</v>
       </c>
       <c r="AR20">
-        <v>0.3238297547166566</v>
+        <v>0.91560058804999</v>
       </c>
       <c r="AS20">
-        <v>0.3325</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -37738,76 +37613,76 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9962500000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="W9">
-        <v>0.9924999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X9">
-        <v>0.98875</v>
+        <v>0.925</v>
       </c>
       <c r="Y9">
-        <v>0.9850000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Z9">
-        <v>0.98125</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>0.9775</v>
+        <v>0.85</v>
       </c>
       <c r="AB9">
-        <v>0.9737499999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.9700000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD9">
-        <v>0.9662500000000001</v>
+        <v>0.775</v>
       </c>
       <c r="AE9">
-        <v>0.9624999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AF9">
-        <v>0.95875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.9550000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AH9">
-        <v>0.95125</v>
+        <v>0.675</v>
       </c>
       <c r="AI9">
-        <v>0.9475</v>
+        <v>0.65</v>
       </c>
       <c r="AJ9">
-        <v>0.94375</v>
+        <v>0.625</v>
       </c>
       <c r="AK9">
-        <v>0.9400000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.93625</v>
+        <v>0.575</v>
       </c>
       <c r="AM9">
-        <v>0.9325</v>
+        <v>0.55</v>
       </c>
       <c r="AN9">
-        <v>0.9287500000000001</v>
+        <v>0.525</v>
       </c>
       <c r="AO9">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AP9">
-        <v>0.92125</v>
+        <v>0.475</v>
       </c>
       <c r="AQ9">
-        <v>0.9175</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.9137500000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AS9">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -38613,76 +38488,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V16">
-        <v>0.05934613054044378</v>
+        <v>0.07090863054044379</v>
       </c>
       <c r="W16">
-        <v>0.08817890747346796</v>
+        <v>0.111303907473468</v>
       </c>
       <c r="X16">
-        <v>0.1170116844064921</v>
+        <v>0.1516991844064922</v>
       </c>
       <c r="Y16">
-        <v>0.1458444613395163</v>
+        <v>0.1920944613395163</v>
       </c>
       <c r="Z16">
-        <v>0.1746772382725405</v>
+        <v>0.2324897382725405</v>
       </c>
       <c r="AA16">
-        <v>0.2035100152055647</v>
+        <v>0.2728850152055647</v>
       </c>
       <c r="AB16">
-        <v>0.2323427921385889</v>
+        <v>0.3132802921385889</v>
       </c>
       <c r="AC16">
-        <v>0.261175569071613</v>
+        <v>0.3536755690716131</v>
       </c>
       <c r="AD16">
-        <v>0.2900083460046372</v>
+        <v>0.3940708460046373</v>
       </c>
       <c r="AE16">
-        <v>0.3188411229376614</v>
+        <v>0.4344661229376615</v>
       </c>
       <c r="AF16">
-        <v>0.3476738998706856</v>
+        <v>0.4748613998706856</v>
       </c>
       <c r="AG16">
-        <v>0.3765066768037097</v>
+        <v>0.5152566768037098</v>
       </c>
       <c r="AH16">
-        <v>0.4053394537367339</v>
+        <v>0.5556519537367339</v>
       </c>
       <c r="AI16">
-        <v>0.4341722306697581</v>
+        <v>0.5960472306697582</v>
       </c>
       <c r="AJ16">
-        <v>0.4630050076027823</v>
+        <v>0.6364425076027823</v>
       </c>
       <c r="AK16">
-        <v>0.4918377845358065</v>
+        <v>0.6768377845358065</v>
       </c>
       <c r="AL16">
-        <v>0.5206705614688306</v>
+        <v>0.7172330614688307</v>
       </c>
       <c r="AM16">
-        <v>0.5495033384018548</v>
+        <v>0.757628338401855</v>
       </c>
       <c r="AN16">
-        <v>0.5783361153348791</v>
+        <v>0.7980236153348791</v>
       </c>
       <c r="AO16">
-        <v>0.6071688922679033</v>
+        <v>0.8384188922679033</v>
       </c>
       <c r="AP16">
-        <v>0.6360016692009274</v>
+        <v>0.8788141692009275</v>
       </c>
       <c r="AQ16">
-        <v>0.6648344461339516</v>
+        <v>0.9192094461339516</v>
       </c>
       <c r="AR16">
-        <v>0.6936672230669758</v>
+        <v>0.9596047230669759</v>
       </c>
       <c r="AS16">
-        <v>0.7224999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -38738,76 +38613,76 @@
         <v>0.382135629228844</v>
       </c>
       <c r="V17">
-        <v>0.3963174780109755</v>
+        <v>0.4078799780109755</v>
       </c>
       <c r="W17">
-        <v>0.4104993267931069</v>
+        <v>0.4336243267931069</v>
       </c>
       <c r="X17">
-        <v>0.4246811755752384</v>
+        <v>0.4593686755752385</v>
       </c>
       <c r="Y17">
-        <v>0.43886302435737</v>
+        <v>0.48511302435737</v>
       </c>
       <c r="Z17">
-        <v>0.4530448731395015</v>
+        <v>0.5108573731395015</v>
       </c>
       <c r="AA17">
-        <v>0.4672267219216329</v>
+        <v>0.536601721921633</v>
       </c>
       <c r="AB17">
-        <v>0.4814085707037644</v>
+        <v>0.5623460707037644</v>
       </c>
       <c r="AC17">
-        <v>0.495590419485896</v>
+        <v>0.588090419485896</v>
       </c>
       <c r="AD17">
-        <v>0.5097722682680275</v>
+        <v>0.6138347682680275</v>
       </c>
       <c r="AE17">
-        <v>0.5239541170501589</v>
+        <v>0.639579117050159</v>
       </c>
       <c r="AF17">
-        <v>0.5381359658322905</v>
+        <v>0.6653234658322905</v>
       </c>
       <c r="AG17">
-        <v>0.552317814614422</v>
+        <v>0.691067814614422</v>
       </c>
       <c r="AH17">
-        <v>0.5664996633965534</v>
+        <v>0.7168121633965534</v>
       </c>
       <c r="AI17">
-        <v>0.580681512178685</v>
+        <v>0.742556512178685</v>
       </c>
       <c r="AJ17">
-        <v>0.5948633609608165</v>
+        <v>0.7683008609608165</v>
       </c>
       <c r="AK17">
-        <v>0.609045209742948</v>
+        <v>0.794045209742948</v>
       </c>
       <c r="AL17">
-        <v>0.6232270585250794</v>
+        <v>0.8197895585250795</v>
       </c>
       <c r="AM17">
-        <v>0.6374089073072109</v>
+        <v>0.845533907307211</v>
       </c>
       <c r="AN17">
-        <v>0.6515907560893425</v>
+        <v>0.8712782560893425</v>
       </c>
       <c r="AO17">
-        <v>0.6657726048714739</v>
+        <v>0.897022604871474</v>
       </c>
       <c r="AP17">
-        <v>0.6799544536536054</v>
+        <v>0.9227669536536055</v>
       </c>
       <c r="AQ17">
-        <v>0.694136302435737</v>
+        <v>0.948511302435737</v>
       </c>
       <c r="AR17">
-        <v>0.7083181512178685</v>
+        <v>0.9742556512178685</v>
       </c>
       <c r="AS17">
-        <v>0.7224999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -38863,76 +38738,76 @@
         <v>0.5</v>
       </c>
       <c r="V18">
-        <v>0.5092708333333333</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="W18">
-        <v>0.5185416666666667</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="X18">
-        <v>0.5278125</v>
+        <v>0.5625</v>
       </c>
       <c r="Y18">
-        <v>0.5370833333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Z18">
-        <v>0.5463541666666667</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="AA18">
-        <v>0.555625</v>
+        <v>0.625</v>
       </c>
       <c r="AB18">
-        <v>0.5648958333333333</v>
+        <v>0.6458333333333333</v>
       </c>
       <c r="AC18">
-        <v>0.5741666666666667</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AD18">
-        <v>0.5834374999999999</v>
+        <v>0.6875</v>
       </c>
       <c r="AE18">
-        <v>0.5927083333333333</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="AF18">
-        <v>0.6019791666666667</v>
+        <v>0.7291666666666667</v>
       </c>
       <c r="AG18">
-        <v>0.61125</v>
+        <v>0.75</v>
       </c>
       <c r="AH18">
-        <v>0.6205208333333333</v>
+        <v>0.7708333333333333</v>
       </c>
       <c r="AI18">
-        <v>0.6297916666666666</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="AJ18">
-        <v>0.6390625</v>
+        <v>0.8125</v>
       </c>
       <c r="AK18">
-        <v>0.6483333333333332</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AL18">
-        <v>0.6576041666666665</v>
+        <v>0.8541666666666667</v>
       </c>
       <c r="AM18">
-        <v>0.6668749999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AN18">
-        <v>0.6761458333333332</v>
+        <v>0.8958333333333333</v>
       </c>
       <c r="AO18">
-        <v>0.6854166666666666</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="AP18">
-        <v>0.6946874999999999</v>
+        <v>0.9375</v>
       </c>
       <c r="AQ18">
-        <v>0.7039583333333332</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="AR18">
-        <v>0.7132291666666666</v>
+        <v>0.9791666666666667</v>
       </c>
       <c r="AS18">
-        <v>0.7224999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -38988,76 +38863,76 @@
         <v>0.0305133536074196</v>
       </c>
       <c r="V19">
-        <v>0.05934613054044378</v>
+        <v>0.07090863054044379</v>
       </c>
       <c r="W19">
-        <v>0.08817890747346796</v>
+        <v>0.111303907473468</v>
       </c>
       <c r="X19">
-        <v>0.1170116844064921</v>
+        <v>0.1516991844064922</v>
       </c>
       <c r="Y19">
-        <v>0.1458444613395163</v>
+        <v>0.1920944613395163</v>
       </c>
       <c r="Z19">
-        <v>0.1746772382725405</v>
+        <v>0.2324897382725405</v>
       </c>
       <c r="AA19">
-        <v>0.2035100152055647</v>
+        <v>0.2728850152055647</v>
       </c>
       <c r="AB19">
-        <v>0.2323427921385889</v>
+        <v>0.3132802921385889</v>
       </c>
       <c r="AC19">
-        <v>0.261175569071613</v>
+        <v>0.3536755690716131</v>
       </c>
       <c r="AD19">
-        <v>0.2900083460046372</v>
+        <v>0.3940708460046373</v>
       </c>
       <c r="AE19">
-        <v>0.3188411229376614</v>
+        <v>0.4344661229376615</v>
       </c>
       <c r="AF19">
-        <v>0.3476738998706856</v>
+        <v>0.4748613998706856</v>
       </c>
       <c r="AG19">
-        <v>0.3765066768037097</v>
+        <v>0.5152566768037098</v>
       </c>
       <c r="AH19">
-        <v>0.4053394537367339</v>
+        <v>0.5556519537367339</v>
       </c>
       <c r="AI19">
-        <v>0.4341722306697581</v>
+        <v>0.5960472306697582</v>
       </c>
       <c r="AJ19">
-        <v>0.4630050076027823</v>
+        <v>0.6364425076027823</v>
       </c>
       <c r="AK19">
-        <v>0.4918377845358065</v>
+        <v>0.6768377845358065</v>
       </c>
       <c r="AL19">
-        <v>0.5206705614688306</v>
+        <v>0.7172330614688307</v>
       </c>
       <c r="AM19">
-        <v>0.5495033384018548</v>
+        <v>0.757628338401855</v>
       </c>
       <c r="AN19">
-        <v>0.5783361153348791</v>
+        <v>0.7980236153348791</v>
       </c>
       <c r="AO19">
-        <v>0.6071688922679033</v>
+        <v>0.8384188922679033</v>
       </c>
       <c r="AP19">
-        <v>0.6360016692009274</v>
+        <v>0.8788141692009275</v>
       </c>
       <c r="AQ19">
-        <v>0.6648344461339516</v>
+        <v>0.9192094461339516</v>
       </c>
       <c r="AR19">
-        <v>0.6936672230669758</v>
+        <v>0.9596047230669759</v>
       </c>
       <c r="AS19">
-        <v>0.7224999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -39363,76 +39238,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V22">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W22">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X22">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y22">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z22">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA22">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB22">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC22">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD22">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE22">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF22">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG22">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH22">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI22">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ22">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK22">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL22">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM22">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN22">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO22">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP22">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ22">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR22">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS22">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -39488,76 +39363,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V23">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W23">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X23">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y23">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z23">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA23">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB23">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC23">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD23">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE23">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF23">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG23">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH23">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI23">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ23">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK23">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL23">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM23">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN23">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO23">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP23">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ23">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR23">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS23">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -39613,76 +39488,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V24">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W24">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X24">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y24">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z24">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA24">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB24">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC24">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD24">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE24">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF24">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG24">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH24">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI24">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ24">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK24">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL24">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM24">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN24">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO24">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP24">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ24">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR24">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS24">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -39738,76 +39613,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V25">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W25">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X25">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y25">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z25">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA25">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB25">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC25">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD25">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE25">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF25">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG25">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH25">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI25">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ25">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK25">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL25">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM25">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN25">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO25">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP25">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ25">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR25">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS25">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -39863,76 +39738,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V26">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W26">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X26">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y26">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z26">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA26">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB26">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC26">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD26">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE26">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF26">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG26">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH26">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI26">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ26">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK26">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL26">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM26">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN26">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO26">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP26">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ26">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR26">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS26">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -39988,76 +39863,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V27">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W27">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X27">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y27">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z27">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA27">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB27">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC27">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD27">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE27">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF27">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG27">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH27">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI27">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ27">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK27">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL27">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM27">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN27">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO27">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP27">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ27">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR27">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS27">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -40113,76 +39988,76 @@
         <v>0.12441411319976</v>
       </c>
       <c r="V28">
-        <v>0.1568343584831033</v>
+        <v>0.1608968584831033</v>
       </c>
       <c r="W28">
-        <v>0.1892546037664466</v>
+        <v>0.1973796037664467</v>
       </c>
       <c r="X28">
-        <v>0.22167484904979</v>
+        <v>0.23386234904979</v>
       </c>
       <c r="Y28">
-        <v>0.2540950943331333</v>
+        <v>0.2703450943331334</v>
       </c>
       <c r="Z28">
-        <v>0.2865153396164767</v>
+        <v>0.3068278396164767</v>
       </c>
       <c r="AA28">
-        <v>0.31893558489982</v>
+        <v>0.34331058489982</v>
       </c>
       <c r="AB28">
-        <v>0.3513558301831634</v>
+        <v>0.3797933301831634</v>
       </c>
       <c r="AC28">
-        <v>0.3837760754665066</v>
+        <v>0.4162760754665067</v>
       </c>
       <c r="AD28">
-        <v>0.41619632074985</v>
+        <v>0.45275882074985</v>
       </c>
       <c r="AE28">
-        <v>0.4486165660331933</v>
+        <v>0.4892415660331934</v>
       </c>
       <c r="AF28">
-        <v>0.4810368113165366</v>
+        <v>0.5257243113165366</v>
       </c>
       <c r="AG28">
-        <v>0.5134570565998799</v>
+        <v>0.56220705659988</v>
       </c>
       <c r="AH28">
-        <v>0.5458773018832233</v>
+        <v>0.5986898018832233</v>
       </c>
       <c r="AI28">
-        <v>0.5782975471665667</v>
+        <v>0.6351725471665667</v>
       </c>
       <c r="AJ28">
-        <v>0.61071779244991</v>
+        <v>0.67165529244991</v>
       </c>
       <c r="AK28">
-        <v>0.6431380377332533</v>
+        <v>0.7081380377332533</v>
       </c>
       <c r="AL28">
-        <v>0.6755582830165967</v>
+        <v>0.7446207830165967</v>
       </c>
       <c r="AM28">
-        <v>0.70797852829994</v>
+        <v>0.78110352829994</v>
       </c>
       <c r="AN28">
-        <v>0.7403987735832832</v>
+        <v>0.8175862735832833</v>
       </c>
       <c r="AO28">
-        <v>0.7728190188666266</v>
+        <v>0.8540690188666267</v>
       </c>
       <c r="AP28">
-        <v>0.8052392641499699</v>
+        <v>0.8905517641499699</v>
       </c>
       <c r="AQ28">
-        <v>0.8376595094333134</v>
+        <v>0.9270345094333133</v>
       </c>
       <c r="AR28">
-        <v>0.8700797547166567</v>
+        <v>0.9635172547166567</v>
       </c>
       <c r="AS28">
-        <v>0.9025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -40235,76 +40110,76 @@
         <v>0.95</v>
       </c>
       <c r="V29">
-        <v>0.95</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="X29">
-        <v>0.95</v>
+        <v>0.9562499999999999</v>
       </c>
       <c r="Y29">
-        <v>0.95</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="Z29">
-        <v>0.9499999999999998</v>
+        <v>0.9604166666666666</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="AC29">
-        <v>0.9500000000000001</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="AD29">
-        <v>0.95</v>
+        <v>0.96875</v>
       </c>
       <c r="AE29">
-        <v>0.95</v>
+        <v>0.9708333333333332</v>
       </c>
       <c r="AF29">
-        <v>0.95</v>
+        <v>0.9729166666666667</v>
       </c>
       <c r="AG29">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
       <c r="AH29">
-        <v>0.95</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="AI29">
-        <v>0.95</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="AJ29">
-        <v>0.95</v>
+        <v>0.98125</v>
       </c>
       <c r="AK29">
-        <v>0.95</v>
+        <v>0.9833333333333334</v>
       </c>
       <c r="AL29">
-        <v>0.95</v>
+        <v>0.9854166666666666</v>
       </c>
       <c r="AM29">
-        <v>0.95</v>
+        <v>0.9875</v>
       </c>
       <c r="AN29">
-        <v>0.95</v>
+        <v>0.9895833333333333</v>
       </c>
       <c r="AO29">
-        <v>0.95</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="AP29">
-        <v>0.95</v>
+        <v>0.99375</v>
       </c>
       <c r="AQ29">
-        <v>0.95</v>
+        <v>0.9958333333333333</v>
       </c>
       <c r="AR29">
-        <v>0.95</v>
+        <v>0.9979166666666667</v>
       </c>
       <c r="AS29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -40357,76 +40232,76 @@
         <v>0.5</v>
       </c>
       <c r="V30">
-        <v>0.5129166666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="W30">
-        <v>0.5258333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="X30">
-        <v>0.5387500000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Y30">
-        <v>0.5516666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="Z30">
-        <v>0.5645833333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="AA30">
-        <v>0.5775</v>
+        <v>0.6</v>
       </c>
       <c r="AB30">
-        <v>0.5904166666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="AC30">
-        <v>0.6033333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AD30">
-        <v>0.61625</v>
+        <v>0.65</v>
       </c>
       <c r="AE30">
-        <v>0.6291666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AF30">
-        <v>0.6420833333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="AG30">
-        <v>0.655</v>
+        <v>0.7</v>
       </c>
       <c r="AH30">
-        <v>0.6679166666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="AI30">
-        <v>0.6808333333333334</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="AJ30">
-        <v>0.6937500000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AK30">
-        <v>0.7066666666666668</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="AL30">
-        <v>0.7195833333333335</v>
+        <v>0.7833333333333334</v>
       </c>
       <c r="AM30">
-        <v>0.7325</v>
+        <v>0.8</v>
       </c>
       <c r="AN30">
-        <v>0.7454166666666666</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="AO30">
-        <v>0.7583333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AP30">
-        <v>0.77125</v>
+        <v>0.85</v>
       </c>
       <c r="AQ30">
-        <v>0.7841666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AR30">
-        <v>0.7970833333333334</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="AS30">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -40482,76 +40357,76 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0.03010416666666666</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="W31">
-        <v>0.06020833333333332</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="X31">
-        <v>0.09031249999999999</v>
+        <v>0.10625</v>
       </c>
       <c r="Y31">
-        <v>0.1204166666666666</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="Z31">
-        <v>0.1505208333333333</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="AA31">
-        <v>0.180625</v>
+        <v>0.2125</v>
       </c>
       <c r="AB31">
-        <v>0.2107291666666667</v>
+        <v>0.2479166666666667</v>
       </c>
       <c r="AC31">
-        <v>0.2408333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AD31">
-        <v>0.2709374999999999</v>
+        <v>0.31875</v>
       </c>
       <c r="AE31">
-        <v>0.3010416666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AF31">
-        <v>0.3311458333333333</v>
+        <v>0.3895833333333333</v>
       </c>
       <c r="AG31">
-        <v>0.36125</v>
+        <v>0.425</v>
       </c>
       <c r="AH31">
-        <v>0.3913541666666666</v>
+        <v>0.4604166666666666</v>
       </c>
       <c r="AI31">
-        <v>0.4214583333333333</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="AJ31">
-        <v>0.4515625</v>
+        <v>0.53125</v>
       </c>
       <c r="AK31">
-        <v>0.4816666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AL31">
-        <v>0.5117708333333333</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="AM31">
-        <v>0.5418749999999999</v>
+        <v>0.6375</v>
       </c>
       <c r="AN31">
-        <v>0.5719791666666666</v>
+        <v>0.6729166666666666</v>
       </c>
       <c r="AO31">
-        <v>0.6020833333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="AP31">
-        <v>0.6321874999999999</v>
+        <v>0.74375</v>
       </c>
       <c r="AQ31">
-        <v>0.6622916666666666</v>
+        <v>0.7791666666666666</v>
       </c>
       <c r="AR31">
-        <v>0.6923958333333333</v>
+        <v>0.8145833333333333</v>
       </c>
       <c r="AS31">
-        <v>0.7224999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -40607,76 +40482,76 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0.03010416666666666</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="W32">
-        <v>0.06020833333333332</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="X32">
-        <v>0.09031249999999999</v>
+        <v>0.10625</v>
       </c>
       <c r="Y32">
-        <v>0.1204166666666666</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="Z32">
-        <v>0.1505208333333333</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="AA32">
-        <v>0.180625</v>
+        <v>0.2125</v>
       </c>
       <c r="AB32">
-        <v>0.2107291666666667</v>
+        <v>0.2479166666666667</v>
       </c>
       <c r="AC32">
-        <v>0.2408333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AD32">
-        <v>0.2709374999999999</v>
+        <v>0.31875</v>
       </c>
       <c r="AE32">
-        <v>0.3010416666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AF32">
-        <v>0.3311458333333333</v>
+        <v>0.3895833333333333</v>
       </c>
       <c r="AG32">
-        <v>0.36125</v>
+        <v>0.425</v>
       </c>
       <c r="AH32">
-        <v>0.3913541666666666</v>
+        <v>0.4604166666666666</v>
       </c>
       <c r="AI32">
-        <v>0.4214583333333333</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="AJ32">
-        <v>0.4515625</v>
+        <v>0.53125</v>
       </c>
       <c r="AK32">
-        <v>0.4816666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AL32">
-        <v>0.5117708333333333</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="AM32">
-        <v>0.5418749999999999</v>
+        <v>0.6375</v>
       </c>
       <c r="AN32">
-        <v>0.5719791666666666</v>
+        <v>0.6729166666666666</v>
       </c>
       <c r="AO32">
-        <v>0.6020833333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="AP32">
-        <v>0.6321874999999999</v>
+        <v>0.74375</v>
       </c>
       <c r="AQ32">
-        <v>0.6622916666666666</v>
+        <v>0.7791666666666666</v>
       </c>
       <c r="AR32">
-        <v>0.6923958333333333</v>
+        <v>0.8145833333333333</v>
       </c>
       <c r="AS32">
-        <v>0.7224999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -40732,76 +40607,76 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0.03010416666666666</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="W33">
-        <v>0.06020833333333332</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="X33">
-        <v>0.09031249999999999</v>
+        <v>0.10625</v>
       </c>
       <c r="Y33">
-        <v>0.1204166666666666</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="Z33">
-        <v>0.1505208333333333</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="AA33">
-        <v>0.180625</v>
+        <v>0.2125</v>
       </c>
       <c r="AB33">
-        <v>0.2107291666666667</v>
+        <v>0.2479166666666667</v>
       </c>
       <c r="AC33">
-        <v>0.2408333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AD33">
-        <v>0.2709374999999999</v>
+        <v>0.31875</v>
       </c>
       <c r="AE33">
-        <v>0.3010416666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AF33">
-        <v>0.3311458333333333</v>
+        <v>0.3895833333333333</v>
       </c>
       <c r="AG33">
-        <v>0.36125</v>
+        <v>0.425</v>
       </c>
       <c r="AH33">
-        <v>0.3913541666666666</v>
+        <v>0.4604166666666666</v>
       </c>
       <c r="AI33">
-        <v>0.4214583333333333</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="AJ33">
-        <v>0.4515625</v>
+        <v>0.53125</v>
       </c>
       <c r="AK33">
-        <v>0.4816666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AL33">
-        <v>0.5117708333333333</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="AM33">
-        <v>0.5418749999999999</v>
+        <v>0.6375</v>
       </c>
       <c r="AN33">
-        <v>0.5719791666666666</v>
+        <v>0.6729166666666666</v>
       </c>
       <c r="AO33">
-        <v>0.6020833333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="AP33">
-        <v>0.6321874999999999</v>
+        <v>0.74375</v>
       </c>
       <c r="AQ33">
-        <v>0.6622916666666666</v>
+        <v>0.7791666666666666</v>
       </c>
       <c r="AR33">
-        <v>0.6923958333333333</v>
+        <v>0.8145833333333333</v>
       </c>
       <c r="AS33">
-        <v>0.7224999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -40857,76 +40732,76 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0.03010416666666666</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="W34">
-        <v>0.06020833333333332</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="X34">
-        <v>0.09031249999999999</v>
+        <v>0.10625</v>
       </c>
       <c r="Y34">
-        <v>0.1204166666666666</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="Z34">
-        <v>0.1505208333333333</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="AA34">
-        <v>0.180625</v>
+        <v>0.2125</v>
       </c>
       <c r="AB34">
-        <v>0.2107291666666667</v>
+        <v>0.2479166666666667</v>
       </c>
       <c r="AC34">
-        <v>0.2408333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AD34">
-        <v>0.2709374999999999</v>
+        <v>0.31875</v>
       </c>
       <c r="AE34">
-        <v>0.3010416666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AF34">
-        <v>0.3311458333333333</v>
+        <v>0.3895833333333333</v>
       </c>
       <c r="AG34">
-        <v>0.36125</v>
+        <v>0.425</v>
       </c>
       <c r="AH34">
-        <v>0.3913541666666666</v>
+        <v>0.4604166666666666</v>
       </c>
       <c r="AI34">
-        <v>0.4214583333333333</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="AJ34">
-        <v>0.4515625</v>
+        <v>0.53125</v>
       </c>
       <c r="AK34">
-        <v>0.4816666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AL34">
-        <v>0.5117708333333333</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="AM34">
-        <v>0.5418749999999999</v>
+        <v>0.6375</v>
       </c>
       <c r="AN34">
-        <v>0.5719791666666666</v>
+        <v>0.6729166666666666</v>
       </c>
       <c r="AO34">
-        <v>0.6020833333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="AP34">
-        <v>0.6321874999999999</v>
+        <v>0.74375</v>
       </c>
       <c r="AQ34">
-        <v>0.6622916666666666</v>
+        <v>0.7791666666666666</v>
       </c>
       <c r="AR34">
-        <v>0.6923958333333333</v>
+        <v>0.8145833333333333</v>
       </c>
       <c r="AS34">
-        <v>0.7224999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
